--- a/biology/Botanique/Parc_du_château_d'Osaka/Parc_du_château_d'Osaka.xlsx
+++ b/biology/Botanique/Parc_du_château_d'Osaka/Parc_du_château_d'Osaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_du_ch%C3%A2teau_d%27Osaka</t>
+          <t>Parc_du_château_d'Osaka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc du Château d'Osaka (大阪城公園, Osaka-Jō-Kōen?)  est un parc urbain public et un site historique situé à Osaka-Jō à Chūō-ku, Osaka, au Japon. Il se trouve au sud de la rivière Ōkawa (Kyū-Yodo) et occupe une grande superficie au centre de la ville d'Osaka. Ce parc est le deuxième plus grand parc de la ville.
 Le parc a été construit sur un site avec une longue histoire. Au XVe siècle, un temple influent, le Ishiyama Hongan-ji, a été construit à son emplacement. En 1583, Toyotomi Hideyoshi le détruisit et fit construire le château d'Osaka. De 1870 à 1945, l’ Arsenal impérial d’Osaka utilisa une grande partie du parc; il fut détruit à la fin de la Seconde Guerre mondiale. En 1931, le parc du château d'Osaka a été ouvert au public, mais la majeure partie de la zone était encore utilisée par l'armée impériale japonaise. Après la Seconde Guerre mondiale, la majeure partie du complexe militaire a été supprimée et remplacée par le parc urbain public.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_du_ch%C3%A2teau_d%27Osaka</t>
+          <t>Parc_du_château_d'Osaka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monuments historiques
-Château d'Osaka (大坂城 Osaka-Jō)
+          <t>Monuments historiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Château d'Osaka (大坂城 Osaka-Jō)
 Tour de garde (天守閣 Tenshu-kaku)
 Entrepôt d'or (金蔵 Kinzō)
 Porte Sakura (桜門 Sakura-Mon)
@@ -531,22 +548,124 @@
 Moat extérieur (外濠 Gaigō)
 Monument au Ishiyama Hongan-ji (石山本願寺推定地碑)
 Le pin où le prêtre Rennyo a suspendu son surplis (蓮如上人袈裟懸の松 Rennyo-Shōnin Kesakake-no-Matsu)
-Monument marquant l'endroit où Toyotomi Hideyori et sa mère, Yodo-dono, se sont suicidés (豊臣秀頼 淀殿ら自刃の碑).
-Sanctuaires et temples
-Hōkoku-jinja (豊國神社 également Toyokuni-jinja )
+Monument marquant l'endroit où Toyotomi Hideyori et sa mère, Yodo-dono, se sont suicidés (豊臣秀頼 淀殿ら自刃の碑).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sanctuaires et temples</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hōkoku-jinja (豊國神社 également Toyokuni-jinja )
 Jardin de pierre (秀石庭 Syuseki-Tei)
 Branche du sanctuaire Ikukunitama (生國魂神社お旅所 Ikukunitama-jinja Otabisho)
-無縁仏回向供養塔
-Installations culturelles et sportives
-Osaka-jō Hall (大阪城ホール Osaka-jō Hall)
+無縁仏回向供養塔</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Installations culturelles et sportives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Osaka-jō Hall (大阪城ホール Osaka-jō Hall)
 Salle de concert en plein air du château d'Osaka (大阪城音楽 Osaka-jō Ongakudō)
 Centre de formation en arts martiaux (修道館 Shudo-Kan)
 Terrain de baseball et terrain d'athlétisme (太陽の広場 Taiyō-no-Hiroba)
 Terrain d'entraînement au tir à l'arc japonais Kyudo (弓道場 Kyudō-Jō)
 Centre international pour la paix d'Osaka (大阪国際平和センター Osaka Kokusai Heiwa Centre)
-Il existe une présence musicale importante et solide dans le parc, avec de nombreux groupes, musiciens ambulants et musiciens qui jouent ou répètent[1].
-Installations du parc public
-Jardin Nishi-no-Maru (西ノ丸庭園 Nishi-no-Maru Teien)
+Il existe une présence musicale importante et solide dans le parc, avec de nombreux groupes, musiciens ambulants et musiciens qui jouent ou répètent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Installations du parc public</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jardin Nishi-no-Maru (西ノ丸庭園 Nishi-no-Maru Teien)
 Maison d'hôtes du gouvernement d'Osaka (大阪迎賓館 Osaka Geihin-Kan)
 Salon de thé japonais (豊松庵 Toyomatsu-An)
 Jardin japonais (日本庭園 Nihon-Teien)
@@ -557,52 +676,224 @@
 Forêt de Waseda (早稲田の森 Waseda-no-Mori)
 Forêt de souvenirs (思い出の森 Omoide-no-Mori)
 Lieu de pierre marqué (刻印石広場 Kokuin-Seki-Hiroba)
-Fontaine
-Installations géologiques nationales
-Point de levé par triangulation de 2e échelon (二等三角点 大阪城)
-Installations du gouvernement
-Administration municipale, Bureau de la maintenance des installations du parc de la zone orientale
-City Water Company, installations d'approvisionnement en eau de Ōte-Mae (大手前配水池,大手前配水場 高地区ポンプ場)
-Installations de l'armée japonaise impériale
-Ancien quartier général de la 4ème division de l'armée impériale japonaise
-Ancien bâtiment du laboratoire de chimie de l'Arsenal impérial d'Osaka
-Autre
-Tour de l'éducation (教育塔 Kyoiku-Tou)
+Fontaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Installations géologiques nationales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Point de levé par triangulation de 2e échelon (二等三角点 大阪城)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Installations du gouvernement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Administration municipale, Bureau de la maintenance des installations du parc de la zone orientale
+City Water Company, installations d'approvisionnement en eau de Ōte-Mae (大手前配水池,大手前配水場 高地区ポンプ場)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Installations de l'armée japonaise impériale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ancien quartier général de la 4ème division de l'armée impériale japonaise
+Ancien bâtiment du laboratoire de chimie de l'Arsenal impérial d'Osaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tour de l'éducation (教育塔 Kyoiku-Tou)
 大阪社会運動顕彰塔
-Port du château d'Osaka (大阪城港) pour le bus Osaka Suijō
-Parking
-Stationnement Morinomiya (森ノ宮駐車場)
+Port du château d'Osaka (大阪城港) pour le bus Osaka Suijō</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Parking</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stationnement Morinomiya (森ノ宮駐車場)
 Parking de bus Jōnan (城南バス駐車場)
 ___________________________________________ 
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Parc_du_ch%C3%A2teau_d%27Osaka</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Activités dans le parc</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">observation des fleurs de prunier : Janvier mars
 observation des fleurs de pêcher : Mars
@@ -611,31 +902,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Parc_du_ch%C3%A2teau_d%27Osaka</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Parc_du_château_d'Osaka</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_du_ch%C3%A2teau_d%27Osaka</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stations de Temmabashi, Tanimachi Yonchōme, Morinomiya et Osakajōkōen se trouvent à proximité du parc.
 </t>
